--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02759233333333333</v>
+        <v>0.005583666666666666</v>
       </c>
       <c r="H2">
-        <v>0.082777</v>
+        <v>0.016751</v>
       </c>
       <c r="I2">
-        <v>0.003002532875897786</v>
+        <v>0.0005349789730684028</v>
       </c>
       <c r="J2">
-        <v>0.003002532875897787</v>
+        <v>0.0005349789730684027</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N2">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O2">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P2">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q2">
-        <v>0.3535634686366667</v>
+        <v>0.05864323529633333</v>
       </c>
       <c r="R2">
-        <v>3.18207121773</v>
+        <v>0.527789117667</v>
       </c>
       <c r="S2">
-        <v>0.002844595637099945</v>
+        <v>0.0005189968329871821</v>
       </c>
       <c r="T2">
-        <v>0.002844595637099946</v>
+        <v>0.000518996832987182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02759233333333333</v>
+        <v>0.005583666666666666</v>
       </c>
       <c r="H3">
-        <v>0.082777</v>
+        <v>0.016751</v>
       </c>
       <c r="I3">
-        <v>0.003002532875897786</v>
+        <v>0.0005349789730684028</v>
       </c>
       <c r="J3">
-        <v>0.003002532875897787</v>
+        <v>0.0005349789730684027</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.878162</v>
       </c>
       <c r="O3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q3">
-        <v>0.008076846208222223</v>
+        <v>0.001634454629111111</v>
       </c>
       <c r="R3">
-        <v>0.072691615874</v>
+        <v>0.014710091662</v>
       </c>
       <c r="S3">
-        <v>6.498228330553686E-05</v>
+        <v>1.446504054360972E-05</v>
       </c>
       <c r="T3">
-        <v>6.498228330553686E-05</v>
+        <v>1.446504054360971E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02759233333333333</v>
+        <v>0.005583666666666666</v>
       </c>
       <c r="H4">
-        <v>0.082777</v>
+        <v>0.016751</v>
       </c>
       <c r="I4">
-        <v>0.003002532875897786</v>
+        <v>0.0005349789730684028</v>
       </c>
       <c r="J4">
-        <v>0.003002532875897787</v>
+        <v>0.0005349789730684027</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N4">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q4">
-        <v>0.01155365495966667</v>
+        <v>0.0001714222891111111</v>
       </c>
       <c r="R4">
-        <v>0.103982894637</v>
+        <v>0.001542800602</v>
       </c>
       <c r="S4">
-        <v>9.295495549230392E-05</v>
+        <v>1.51709953761099E-06</v>
       </c>
       <c r="T4">
-        <v>9.295495549230394E-05</v>
+        <v>1.51709953761099E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>23.90622</v>
       </c>
       <c r="I5">
-        <v>0.8671395615744129</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="J5">
-        <v>0.867139561574413</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N5">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O5">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P5">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q5">
-        <v>102.1100796742</v>
+        <v>83.69279950486001</v>
       </c>
       <c r="R5">
-        <v>918.9907170678001</v>
+        <v>753.23519554374</v>
       </c>
       <c r="S5">
-        <v>0.8215268626738279</v>
+        <v>0.740687270532794</v>
       </c>
       <c r="T5">
-        <v>0.821526862673828</v>
+        <v>0.740687270532794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.90622</v>
       </c>
       <c r="I6">
-        <v>0.8671395615744129</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="J6">
-        <v>0.867139561574413</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.878162</v>
       </c>
       <c r="O6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q6">
         <v>2.332614885293334</v>
@@ -818,10 +818,10 @@
         <v>20.99353396764</v>
       </c>
       <c r="S6">
-        <v>0.01876705800892146</v>
+        <v>0.02064380882003782</v>
       </c>
       <c r="T6">
-        <v>0.01876705800892146</v>
+        <v>0.02064380882003782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>23.90622</v>
       </c>
       <c r="I7">
-        <v>0.8671395615744129</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="J7">
-        <v>0.867139561574413</v>
+        <v>0.7634962107066631</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N7">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O7">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P7">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q7">
-        <v>3.33672659398</v>
+        <v>0.2446456304933333</v>
       </c>
       <c r="R7">
-        <v>30.03053934582</v>
+        <v>2.20181067444</v>
       </c>
       <c r="S7">
-        <v>0.02684564089166346</v>
+        <v>0.00216513135383121</v>
       </c>
       <c r="T7">
-        <v>0.02684564089166346</v>
+        <v>0.00216513135383121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.193353333333333</v>
+        <v>2.462846666666667</v>
       </c>
       <c r="H8">
-        <v>3.58006</v>
+        <v>7.388540000000001</v>
       </c>
       <c r="I8">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="J8">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N8">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O8">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P8">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q8">
-        <v>15.29142674326667</v>
+        <v>25.86638945235334</v>
       </c>
       <c r="R8">
-        <v>137.6228406894</v>
+        <v>232.79750507118</v>
       </c>
       <c r="S8">
-        <v>0.1230272063079845</v>
+        <v>0.2289193994626658</v>
       </c>
       <c r="T8">
-        <v>0.1230272063079845</v>
+        <v>0.2289193994626658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.193353333333333</v>
+        <v>2.462846666666667</v>
       </c>
       <c r="H9">
-        <v>3.58006</v>
+        <v>7.388540000000001</v>
       </c>
       <c r="I9">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="J9">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.878162</v>
       </c>
       <c r="O9">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P9">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q9">
-        <v>0.3493191833022223</v>
+        <v>0.7209261181644446</v>
       </c>
       <c r="R9">
-        <v>3.14387264972</v>
+        <v>6.488335063480001</v>
       </c>
       <c r="S9">
-        <v>0.002810448230436236</v>
+        <v>0.006380247785689342</v>
       </c>
       <c r="T9">
-        <v>0.002810448230436236</v>
+        <v>0.00638024778568934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.193353333333333</v>
+        <v>2.462846666666667</v>
       </c>
       <c r="H10">
-        <v>3.58006</v>
+        <v>7.388540000000001</v>
       </c>
       <c r="I10">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="J10">
-        <v>0.1298579055496893</v>
+        <v>0.2359688103202685</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N10">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O10">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P10">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q10">
-        <v>0.4996892612066667</v>
+        <v>0.07561103456444446</v>
       </c>
       <c r="R10">
-        <v>4.49720335086</v>
+        <v>0.6804993110800001</v>
       </c>
       <c r="S10">
-        <v>0.004020251011268561</v>
+        <v>0.0006691630719133369</v>
       </c>
       <c r="T10">
-        <v>0.004020251011268561</v>
+        <v>0.0006691630719133368</v>
       </c>
     </row>
   </sheetData>
